--- a/states/Svezia.xlsx
+++ b/states/Svezia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>timestamp</t>
   </si>
@@ -148,6 +148,21 @@
     <t>exchange_import</t>
   </si>
   <si>
+    <t>21:02 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:20 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:32 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:51 13-04-2022</t>
+  </si>
+  <si>
+    <t>00:22 14-04-2022</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
@@ -157,10 +172,34 @@
     <t>59%</t>
   </si>
   <si>
-    <t xml:space="preserve"> Isole Åland,80000.0,-32250.0,22.35; Germania,615000.0,-359050.0,248.83; Bornholm (Danimarca),60000.0,-12900.0,8.94; Danimarca occidentale (Danimarca),715000.0,-713800.0,494.68; Danimarca orientale (Danimarca),1300000.0,-1294300.0,896.98; F,2700000.0,-761100.0,527.46; Lituania,700000.0,-733150.0,508.09; Sudest (Norvegia),2100000.0,-189200.0,131.12; Polonia,600000.0,-604150.0,418.69;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Centro (Norvegia),600000.0,535350.0,235.42; Nord (Norvegia),950000.0,221450.0,114.73;</t>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isole Åland,80000.0,-32250.0,22.2; Germania,615000.0,-359050.0,247.16; Bornholm (Danimarca),60000.0,-10750.0,7.4; Danimarca occidentale (Danimarca),715000.0,-713800.0,491.36; Danimarca orientale (Danimarca),1300000.0,-1118000.0,769.6; F,2700000.0,-761100.0,523.92; Lituania,700000.0,-662200.0,455.84; Polonia,600000.0,-604150.0,415.88;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isole Åland,80000.0,-29120.0,20.02; Germania,615000.0,-359840.0,247.39; Bornholm (Danimarca),60000.0,-8320.0,5.72; Danimarca occidentale (Danimarca),715000.0,-715520.0,491.92; Danimarca orientale (Danimarca),1300000.0,-1135680.0,780.78; F,2700000.0,-626080.0,430.43; Lituania,700000.0,-574080.0,394.68; Sudest (Norvegia),2100000.0,-312000.0,214.5; Polonia,600000.0,-605280.0,416.13;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isole Åland,80000.0,-29120.0,20.02; Germania,615000.0,-359840.0,247.39; Bornholm (Danimarca),60000.0,-8320.0,5.72; Danimarca occidentale (Danimarca),715000.0,-715520.0,491.92; Danimarca orientale (Danimarca),1300000.0,-1135680.0,780.78; F,2700000.0,-626080.0,430.43; Lituania,700000.0,-574080.0,394.68; Sudest (Norvegia),2100000.0,-474240.0,326.04; Polonia,600000.0,-605280.0,416.13;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isole Åland,80000.0,-28280.0,19.46; Germania,615000.0,-359560.0,247.42; Bornholm (Danimarca),60000.0,-8080.0,5.56; Danimarca occidentale (Danimarca),715000.0,-715080.0,492.06; Danimarca orientale (Danimarca),1300000.0,-1199880.0,825.66; F,2700000.0,-517120.0,355.84; Lituania,700000.0,-723160.0,497.62; Sudest (Norvegia),2100000.0,-474700.0,326.65; Polonia,600000.0,-603980.0,415.61;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sudest (Norvegia),2150000.0,25800.0,13.32; Centro (Norvegia),600000.0,500950.0,219.04; Nord (Norvegia),950000.0,210700.0,106.56;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Centro (Norvegia),600000.0,497120.0,217.36; Nord (Norvegia),950000.0,178880.0,91.52;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Centro (Norvegia),600000.0,497120.0,221.65; Nord (Norvegia),950000.0,172640.0,88.66;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Centro (Norvegia),600000.0,480760.0,211.28; Nord (Norvegia),950000.0,171700.0,90.35;</t>
   </si>
 </sst>
 </file>
@@ -518,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,29 +698,32 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
+      <c r="B2">
+        <v>41</v>
+      </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>21500000</v>
       </c>
       <c r="F2">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="G2">
         <v>6870000</v>
       </c>
       <c r="H2">
-        <v>6944500</v>
+        <v>6935900</v>
       </c>
       <c r="I2">
-        <v>1393.15</v>
+        <v>1385.28</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -708,10 +750,10 @@
         <v>12200000</v>
       </c>
       <c r="T2">
-        <v>2349950</v>
+        <v>2332750</v>
       </c>
       <c r="U2">
-        <v>432.1</v>
+        <v>427.72</v>
       </c>
       <c r="V2">
         <v>1590000</v>
@@ -720,10 +762,10 @@
         <v>16300000</v>
       </c>
       <c r="Z2">
-        <v>9552450</v>
+        <v>9606200</v>
       </c>
       <c r="AA2">
-        <v>3832.28</v>
+        <v>3839.12</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -744,16 +786,420 @@
         <v>2250000</v>
       </c>
       <c r="AO2">
-        <v>1898450</v>
+        <v>1887700</v>
       </c>
       <c r="AP2">
-        <v>8893.809999999999</v>
+        <v>8808.959999999999</v>
       </c>
       <c r="AQ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>20800000</v>
+      </c>
+      <c r="F3">
+        <v>14300</v>
+      </c>
+      <c r="G3">
+        <v>6870000</v>
+      </c>
+      <c r="H3">
+        <v>6945120</v>
+      </c>
+      <c r="I3">
+        <v>1384.24</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>5020000</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12200000</v>
+      </c>
+      <c r="T3">
+        <v>2115360</v>
+      </c>
+      <c r="U3">
+        <v>386.1</v>
+      </c>
+      <c r="V3">
+        <v>1590000</v>
+      </c>
+      <c r="Y3">
+        <v>16300000</v>
+      </c>
+      <c r="Z3">
+        <v>9226880</v>
+      </c>
+      <c r="AA3">
+        <v>3676.53</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>698000</v>
+      </c>
+      <c r="AK3">
+        <v>2250000</v>
+      </c>
+      <c r="AO3">
+        <v>1836640</v>
+      </c>
+      <c r="AP3">
+        <v>8544.25</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>20800000</v>
+      </c>
+      <c r="F4">
+        <v>14300</v>
+      </c>
+      <c r="G4">
+        <v>6870000</v>
+      </c>
+      <c r="H4">
+        <v>6945120</v>
+      </c>
+      <c r="I4">
+        <v>1384.24</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>5020000</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12200000</v>
+      </c>
+      <c r="T4">
+        <v>2115360</v>
+      </c>
+      <c r="U4">
+        <v>386.1</v>
+      </c>
+      <c r="V4">
+        <v>1590000</v>
+      </c>
+      <c r="Y4">
+        <v>16300000</v>
+      </c>
+      <c r="Z4">
+        <v>9226880</v>
+      </c>
+      <c r="AA4">
+        <v>3676.53</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>698000</v>
+      </c>
+      <c r="AK4">
+        <v>2250000</v>
+      </c>
+      <c r="AO4">
+        <v>1836640</v>
+      </c>
+      <c r="AP4">
+        <v>8544.25</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>20800000</v>
+      </c>
+      <c r="F5">
+        <v>14300</v>
+      </c>
+      <c r="G5">
+        <v>6870000</v>
+      </c>
+      <c r="H5">
+        <v>6947200</v>
+      </c>
+      <c r="I5">
+        <v>1382.81</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>5020000</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12200000</v>
+      </c>
+      <c r="T5">
+        <v>2117440</v>
+      </c>
+      <c r="U5">
+        <v>386.1</v>
+      </c>
+      <c r="V5">
+        <v>1590000</v>
+      </c>
+      <c r="Y5">
+        <v>16300000</v>
+      </c>
+      <c r="Z5">
+        <v>9231040</v>
+      </c>
+      <c r="AA5">
+        <v>3676.53</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>698000</v>
+      </c>
+      <c r="AK5">
+        <v>2250000</v>
+      </c>
+      <c r="AO5">
+        <v>1836640</v>
+      </c>
+      <c r="AP5">
+        <v>8542.82</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
         <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>20200000</v>
+      </c>
+      <c r="F6">
+        <v>13900</v>
+      </c>
+      <c r="G6">
+        <v>6870000</v>
+      </c>
+      <c r="H6">
+        <v>6944760</v>
+      </c>
+      <c r="I6">
+        <v>1383.05</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5020000</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12200000</v>
+      </c>
+      <c r="T6">
+        <v>1914960</v>
+      </c>
+      <c r="U6">
+        <v>350.28</v>
+      </c>
+      <c r="V6">
+        <v>1590000</v>
+      </c>
+      <c r="Y6">
+        <v>16300000</v>
+      </c>
+      <c r="Z6">
+        <v>8900120</v>
+      </c>
+      <c r="AA6">
+        <v>3544.5</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>698000</v>
+      </c>
+      <c r="AK6">
+        <v>2250000</v>
+      </c>
+      <c r="AO6">
+        <v>1787700</v>
+      </c>
+      <c r="AP6">
+        <v>8321.93</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/states/Svezia.xlsx
+++ b/states/Svezia.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17:10 16-04-2022</t>
+          <t>17:37 16-04-2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/states/Svezia.xlsx
+++ b/states/Svezia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,20 +661,14 @@
           <t>17:37 16-04-2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="B2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53</v>
       </c>
       <c r="E2" t="n">
         <v>18400000</v>
@@ -779,6 +773,130 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:47 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>18400000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6870000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6900000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1376.81</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5020000</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12200000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2277920</v>
+      </c>
+      <c r="U3" t="n">
+        <v>416.58</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>16300000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7242240</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2892.48</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>698000</v>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
+        <v>1624720</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>7573.11</v>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Isole Åland_80000.0_-27600.0_19.65; Germania_615000.0_-609040.0_433.61; Bornholm (Danimarca)_60000.0_-7360.0_5.24; Danimarca orientale (Danimarca)_1300000.0_-1207040.0_859.36; F_2700000.0_-879520.0_626.18; Lituania_700000.0_-732320.0_521.38; Sudest (Norvegia)_2100000.0_-1258560.0_896.04; Polonia_600000.0_-533600.0_379.9;</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Danimarca occidentale (Danimarca)_715000.0_274160.0_800.41; Centro (Norvegia)_600000.0_20240.0_9.17; Nord (Norvegia)_950000.0_60720.0_31.44;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
